--- a/Overwatch Counters.xlsx
+++ b/Overwatch Counters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ae60e980f54dfb3/Desktop/Overwatch counter app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_8574FFA19E6A6EDC308F88F0EAF39C8629596868" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84EE9A7C-81D2-4068-988D-5218E0580777}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_8574FFA19E6A6EDC308F88F0EAF39C8629596868" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0C7A44E-76EA-4272-9A0A-1F735CA0B0D5}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3030" yWindow="3030" windowWidth="38700" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Counters" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="152">
   <si>
     <t>Role</t>
   </si>
@@ -976,7 +976,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2153,7 +2153,9 @@
       <c r="D32" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E32" s="4"/>
+      <c r="E32" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F32" s="4" t="s">
         <v>106</v>
       </c>

--- a/Overwatch Counters.xlsx
+++ b/Overwatch Counters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9ae60e980f54dfb3/Desktop/Overwatch counter app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_8574FFA19E6A6EDC308F88F0EAF39C8629596868" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0C7A44E-76EA-4272-9A0A-1F735CA0B0D5}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="11_8574FFA19E6A6EDC308F88F0EAF39C8629596868" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6255765F-EFF5-46BF-9CC6-B6F610545628}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -536,16 +536,6 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Illiari, Baptiste</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>DVa, Sigma, Orisa</t>
     </r>
   </si>
@@ -659,6 +649,9 @@
       <t>Sombra, Tracer, Pharah</t>
     </r>
   </si>
+  <si>
+    <t>Illari, Baptiste</t>
+  </si>
 </sst>
 </file>
 
@@ -751,12 +744,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -976,7 +970,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1785,8 +1779,8 @@
       <c r="D22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>139</v>
+      <c r="E22" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>83</v>
@@ -1818,10 +1812,10 @@
         <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>93</v>
@@ -1893,7 +1887,7 @@
         <v>18</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
@@ -1929,7 +1923,7 @@
         <v>6</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>41</v>
@@ -2003,10 +1997,10 @@
         <v>102</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>103</v>
@@ -2044,7 +2038,7 @@
         <v>34</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>98</v>
@@ -2110,10 +2104,10 @@
         <v>36</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>41</v>
@@ -2395,7 +2389,7 @@
         <v>91</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4" t="s">
@@ -2431,7 +2425,7 @@
         <v>117</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4" t="s">
@@ -2465,7 +2459,7 @@
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4" t="s">
